--- a/data/trans_orig/IP3106-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3106-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8043E5FF-29DD-4B41-9555-331C1685FAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8FAC68-A748-48F7-B7C0-410C152F23A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DC30383-A220-4DBA-B0D3-2ABB09F49509}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49164896-96CE-47B2-BEF9-984E8D6970A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="525">
   <si>
     <t>Menores según la frecuencia se baña o ducha en 2007 (Tasa respuesta: 93,25%)</t>
   </si>
@@ -125,1501 +125,1495 @@
     <t>0,79%</t>
   </si>
   <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se baña o ducha en 2012 (Tasa respuesta: 91,85%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se baña o ducha en 2016 (Tasa respuesta: 92,66%)</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se baña o ducha en 2023 (Tasa respuesta: 96,56%)</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se baña o ducha en 2012 (Tasa respuesta: 91,85%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se baña o ducha en 2015 (Tasa respuesta: 92,66%)</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se baña o ducha en 2023 (Tasa respuesta: 96,56%)</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>68,23%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>64,63%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>69,31%</t>
   </si>
   <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A90645-C2AF-4A72-BAB0-D5F7BFA9E8CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0782D717-2958-4EB6-84B3-43DDFDD25E1C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2740,7 +2734,7 @@
         <v>47</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2749,13 @@
         <v>70838</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2770,13 +2764,13 @@
         <v>69778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
         <v>210</v>
@@ -2785,13 +2779,13 @@
         <v>140615</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,7 +2841,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2865,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2880,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2895,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2904,13 @@
         <v>2031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2931,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2940,13 +2934,13 @@
         <v>2031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +2955,13 @@
         <v>720</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2976,13 +2970,13 @@
         <v>711</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2991,13 +2985,13 @@
         <v>1431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3006,13 @@
         <v>24993</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -3027,13 +3021,13 @@
         <v>15388</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M21" s="7">
         <v>59</v>
@@ -3042,13 +3036,13 @@
         <v>40381</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3057,13 @@
         <v>86945</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>116</v>
@@ -3078,13 +3072,13 @@
         <v>78267</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -3093,13 +3087,13 @@
         <v>165211</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3108,13 @@
         <v>335439</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H23" s="7">
         <v>446</v>
@@ -3129,13 +3123,13 @@
         <v>293886</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M23" s="7">
         <v>951</v>
@@ -3144,13 +3138,13 @@
         <v>629324</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3200,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3224,7 +3218,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3239,7 +3233,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3254,7 +3248,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,28 +3263,28 @@
         <v>726</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3299,13 +3293,13 @@
         <v>726</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3341,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3356,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3365,13 @@
         <v>5438</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -3386,7 +3380,7 @@
         <v>12155</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>110</v>
@@ -3404,10 +3398,10 @@
         <v>112</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,10 +3625,10 @@
         <v>135</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3658,13 +3652,13 @@
         <v>2757</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3694,13 +3688,13 @@
         <v>711</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -3709,13 +3703,13 @@
         <v>2080</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3724,13 @@
         <v>33574</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H35" s="7">
         <v>47</v>
@@ -3745,10 +3739,10 @@
         <v>33062</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>148</v>
@@ -3787,7 +3781,7 @@
         <v>153</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="H36" s="7">
         <v>166</v>
@@ -3796,13 +3790,13 @@
         <v>112054</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M36" s="7">
         <v>350</v>
@@ -3811,13 +3805,13 @@
         <v>233388</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3826,13 @@
         <v>516692</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H37" s="7">
         <v>732</v>
@@ -3847,13 +3841,13 @@
         <v>488155</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M37" s="7">
         <v>1508</v>
@@ -3862,13 +3856,13 @@
         <v>1004847</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3918,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +3938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A676CE-3DAA-4FBC-8F9D-081557F831DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C9FDC1-E0C2-44BE-B169-E87F5536C9A5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3961,7 +3955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4419,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4464,13 +4458,13 @@
         <v>670</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4500,7 +4494,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,7 +4515,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4566,13 +4560,13 @@
         <v>2886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4581,13 +4575,13 @@
         <v>5426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4596,13 +4590,13 @@
         <v>8313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4611,13 @@
         <v>4191</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -4632,13 +4626,13 @@
         <v>6633</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -4647,13 +4641,13 @@
         <v>10824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4662,13 @@
         <v>74252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -4683,13 +4677,13 @@
         <v>76127</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -4698,13 +4692,13 @@
         <v>150379</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,7 +4754,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -4778,7 +4772,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4793,7 +4787,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4808,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,7 +4823,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4844,7 +4838,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4859,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,7 +4874,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4889,13 +4883,13 @@
         <v>747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4904,10 +4898,10 @@
         <v>2595</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>206</v>
@@ -4955,13 +4949,13 @@
         <v>23227</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4970,13 @@
         <v>30950</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -4991,13 +4985,13 @@
         <v>20636</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -5006,13 +5000,13 @@
         <v>51586</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5021,13 @@
         <v>407362</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H23" s="7">
         <v>552</v>
@@ -5042,13 +5036,13 @@
         <v>380770</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>1138</v>
@@ -5057,13 +5051,13 @@
         <v>788132</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5113,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5137,37 +5131,37 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,37 +5182,37 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,7 +5233,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -5248,13 +5242,13 @@
         <v>498</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -5263,13 +5257,13 @@
         <v>1132</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5278,13 @@
         <v>2466</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5299,13 +5293,13 @@
         <v>2672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -5314,13 +5308,13 @@
         <v>5138</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5329,13 @@
         <v>11921</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5350,13 +5344,13 @@
         <v>8448</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -5365,13 +5359,13 @@
         <v>20369</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5380,13 @@
         <v>139968</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H30" s="7">
         <v>200</v>
@@ -5401,13 +5395,13 @@
         <v>141697</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M30" s="7">
         <v>399</v>
@@ -5416,13 +5410,13 @@
         <v>281665</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,7 +5541,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5571,13 +5565,13 @@
         <v>670</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5586,13 @@
         <v>2481</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -5613,7 +5607,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -5622,13 +5616,13 @@
         <v>3727</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5637,13 @@
         <v>18101</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -5661,10 +5655,10 @@
         <v>271</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M35" s="7">
         <v>50</v>
@@ -5673,13 +5667,13 @@
         <v>36678</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5688,13 @@
         <v>47063</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H36" s="7">
         <v>51</v>
@@ -5709,13 +5703,13 @@
         <v>35717</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="M36" s="7">
         <v>117</v>
@@ -5730,7 +5724,7 @@
         <v>283</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5739,13 @@
         <v>622224</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H37" s="7">
         <v>863</v>
@@ -5760,13 +5754,13 @@
         <v>598594</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M37" s="7">
         <v>1755</v>
@@ -5775,13 +5769,13 @@
         <v>1220817</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,7 +5831,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5857,7 +5851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F8A99D-1923-4A59-9CB0-A7D498980D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A22271-2067-4FB5-8D2D-887949F60A0D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5874,7 +5868,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6304,37 +6298,37 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,37 +6349,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,7 +6400,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6415,13 +6409,13 @@
         <v>536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6430,13 +6424,13 @@
         <v>536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6445,13 @@
         <v>2079</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -6466,13 +6460,13 @@
         <v>1194</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -6481,13 +6475,13 @@
         <v>3273</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,13 +6496,13 @@
         <v>8523</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -6517,13 +6511,13 @@
         <v>3224</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M15" s="7">
         <v>16</v>
@@ -6532,13 +6526,13 @@
         <v>11747</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6547,13 @@
         <v>56655</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -6568,13 +6562,13 @@
         <v>51202</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -6583,13 +6577,13 @@
         <v>107857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,7 +6639,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6663,7 +6657,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6678,7 +6672,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6693,7 +6687,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,7 +6708,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6729,7 +6723,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6744,7 +6738,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6753,13 @@
         <v>2280</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6774,13 +6768,13 @@
         <v>799</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -6789,13 +6783,13 @@
         <v>3080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6804,7 @@
         <v>16221</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>328</v>
@@ -6828,10 +6822,10 @@
         <v>330</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
@@ -6840,13 +6834,13 @@
         <v>26629</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,13 +6855,13 @@
         <v>43403</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -6876,13 +6870,13 @@
         <v>56164</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -6891,13 +6885,13 @@
         <v>99567</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,13 +6906,13 @@
         <v>397983</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H23" s="7">
         <v>560</v>
@@ -6927,13 +6921,13 @@
         <v>372062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M23" s="7">
         <v>1126</v>
@@ -6942,13 +6936,13 @@
         <v>770044</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,7 +6998,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7022,7 +7016,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7037,7 +7031,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7052,7 +7046,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,7 +7067,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7088,7 +7082,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7103,7 +7097,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,7 +7118,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7139,7 +7133,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -7154,7 +7148,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,13 +7163,13 @@
         <v>4773</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -7184,13 +7178,13 @@
         <v>5485</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -7199,13 +7193,13 @@
         <v>10258</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>360</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,7 +7235,7 @@
         <v>365</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -7250,10 +7244,10 @@
         <v>27907</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>368</v>
@@ -7301,13 +7295,13 @@
         <v>286549</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7471,13 @@
         <v>2280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7492,13 +7486,13 @@
         <v>1335</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -7507,13 +7501,13 @@
         <v>3615</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7522,13 @@
         <v>23073</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>190</v>
+        <v>379</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>380</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>28</v>
+        <v>381</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -7543,10 +7537,10 @@
         <v>17086</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>381</v>
+        <v>208</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>382</v>
@@ -7564,7 +7558,7 @@
         <v>384</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>385</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,13 +7573,13 @@
         <v>68295</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="H36" s="7">
         <v>105</v>
@@ -7594,13 +7588,13 @@
         <v>70926</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M36" s="7">
         <v>200</v>
@@ -7609,13 +7603,13 @@
         <v>139221</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7624,13 @@
         <v>602693</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H37" s="7">
         <v>844</v>
@@ -7645,13 +7639,13 @@
         <v>561757</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M37" s="7">
         <v>1708</v>
@@ -7660,13 +7654,13 @@
         <v>1164449</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,7 +7716,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7742,7 +7736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E8D51B-D72F-4E9A-BB3C-6286ADB3CE45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697EBFFE-8921-48AF-A535-4B62AA59368E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7759,7 +7753,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8217,7 +8211,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8232,7 +8226,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -8247,7 +8241,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,7 +8262,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>404</v>
+        <v>182</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8283,7 +8277,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8298,7 +8292,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8307,13 @@
         <v>2585</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -8328,13 +8322,13 @@
         <v>1781</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>408</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -8343,13 +8337,13 @@
         <v>4366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>410</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8358,13 @@
         <v>10152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -8379,13 +8373,13 @@
         <v>4395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>417</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -8394,13 +8388,13 @@
         <v>14546</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>115</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8409,13 @@
         <v>13606</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -8430,13 +8424,13 @@
         <v>14005</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M15" s="7">
         <v>35</v>
@@ -8445,13 +8439,13 @@
         <v>27611</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,13 +8460,13 @@
         <v>28637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -8481,13 +8475,13 @@
         <v>29973</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -8496,13 +8490,13 @@
         <v>58610</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8558,7 +8552,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -8570,13 +8564,13 @@
         <v>616</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>66</v>
+        <v>435</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8591,7 +8585,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -8600,13 +8594,13 @@
         <v>616</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8627,7 +8621,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8642,7 +8636,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8657,7 +8651,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8666,13 @@
         <v>1247</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -8687,13 +8681,13 @@
         <v>2739</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>445</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -8702,13 +8696,13 @@
         <v>3985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8717,13 @@
         <v>36260</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H21" s="7">
         <v>34</v>
@@ -8738,13 +8732,13 @@
         <v>20509</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>444</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M21" s="7">
         <v>87</v>
@@ -8753,13 +8747,13 @@
         <v>56769</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8774,13 +8768,13 @@
         <v>126183</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
@@ -8789,13 +8783,13 @@
         <v>112526</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
         <v>308</v>
@@ -8804,13 +8798,13 @@
         <v>238708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,13 +8819,13 @@
         <v>317020</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H23" s="7">
         <v>437</v>
@@ -8840,13 +8834,13 @@
         <v>305481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M23" s="7">
         <v>852</v>
@@ -8855,13 +8849,13 @@
         <v>622501</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,7 +8911,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8935,7 +8929,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8950,7 +8944,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8965,7 +8959,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8986,7 +8980,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9001,7 +8995,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9016,7 +9010,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9031,13 +9025,13 @@
         <v>757</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -9052,7 +9046,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -9061,13 +9055,13 @@
         <v>757</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9082,13 +9076,13 @@
         <v>7045</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -9097,13 +9091,13 @@
         <v>5877</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -9112,13 +9106,13 @@
         <v>12922</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9133,13 +9127,13 @@
         <v>26734</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -9148,13 +9142,13 @@
         <v>25906</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -9163,13 +9157,13 @@
         <v>52641</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>312</v>
+        <v>484</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9184,13 +9178,13 @@
         <v>137957</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>487</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H30" s="7">
         <v>174</v>
@@ -9199,13 +9193,13 @@
         <v>116247</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M30" s="7">
         <v>360</v>
@@ -9214,13 +9208,13 @@
         <v>254204</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,13 +9282,13 @@
         <v>616</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9309,7 +9303,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9318,13 +9312,13 @@
         <v>616</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>498</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9360,7 +9354,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9390,13 +9384,13 @@
         <v>4589</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>66</v>
+        <v>496</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -9405,13 +9399,13 @@
         <v>4520</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>377</v>
+        <v>498</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>473</v>
+        <v>407</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -9423,10 +9417,10 @@
         <v>499</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9441,7 +9435,7 @@
         <v>53457</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>224</v>
+        <v>501</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>502</v>
@@ -9474,10 +9468,10 @@
         <v>507</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9492,13 +9486,13 @@
         <v>166523</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="H36" s="7">
         <v>204</v>
@@ -9507,13 +9501,13 @@
         <v>153608</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>514</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>515</v>
+        <v>419</v>
       </c>
       <c r="M36" s="7">
         <v>418</v>
@@ -9522,13 +9516,13 @@
         <v>320131</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>87</v>
+        <v>514</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9543,13 +9537,13 @@
         <v>483615</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>519</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>520</v>
+        <v>93</v>
       </c>
       <c r="H37" s="7">
         <v>650</v>
@@ -9558,13 +9552,13 @@
         <v>451701</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M37" s="7">
         <v>1290</v>
@@ -9573,13 +9567,13 @@
         <v>935315</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9635,7 +9629,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
